--- a/testData/Book1.xlsx
+++ b/testData/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20055" windowHeight="7440"/>
+    <workbookView xWindow="0" yWindow="2865" windowWidth="9750" windowHeight="6165"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
   <si>
     <t>username</t>
   </si>
@@ -34,38 +35,19 @@
   </si>
   <si>
     <t>valid</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>Admin123</t>
-  </si>
-  <si>
-    <t>invalid</t>
-  </si>
-  <si>
-    <t>admin@123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -85,19 +67,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -393,7 +369,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -427,24 +403,24 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
+      <c r="B4" t="s">
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -459,9 +435,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
